--- a/Hackathon 2019 Data Dictionary.xlsx
+++ b/Hackathon 2019 Data Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Social Determinants of Health" sheetId="1" state="visible" r:id="rId2"/>
@@ -1887,16 +1887,16 @@
   </sheetPr>
   <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="91.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,12 +2887,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,20 +4138,20 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="115.357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="122.229591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,19 +5914,19 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.0204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="29.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.2704081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="51.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>309</v>
       </c>
@@ -6147,7 +6147,7 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
         <v>339</v>
       </c>
@@ -6541,10 +6541,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8622448979592"/>
+    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,14 +6627,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8188,14 +8188,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.1632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,9 +10242,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10649,9 +10649,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
